--- a/data/trans_camb/P43E_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43E_R-Estudios-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>7.631221767493146</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.443019020733298</v>
+        <v>6.443019020733287</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.289743664641741</v>
+        <v>4.607943814181118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.587530764194681</v>
+        <v>3.099078493361101</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.82736373268486</v>
+        <v>11.39992448989244</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.997948353480405</v>
+        <v>9.877903424918323</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>0.08735266705670502</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.07375161048989118</v>
+        <v>0.07375161048989105</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04830035317420144</v>
+        <v>0.05231468481088963</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02880528127680211</v>
+        <v>0.03525893543196557</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1270352526907433</v>
+        <v>0.1337950119971322</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1169732639211143</v>
+        <v>0.1169565385210504</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>9.20191767287516</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.969393021423327</v>
+        <v>1.969393021423338</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.844956933224808</v>
+        <v>6.139092239823309</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.309577530790942</v>
+        <v>-1.33395180810543</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.38283382947361</v>
+        <v>12.67915375276491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.633178926413002</v>
+        <v>5.830714553032581</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.119850773570137</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.02565044433911632</v>
+        <v>0.02565044433911647</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.07471361259748759</v>
+        <v>0.07850088603597516</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01626978547486492</v>
+        <v>-0.0173834685477283</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1661616857446738</v>
+        <v>0.169891482478061</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07638748950426902</v>
+        <v>0.07761371188399889</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2996855429142665</v>
+        <v>-0.6267623853246981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.56945889729105</v>
+        <v>-10.8752804991615</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.53557392286103</v>
+        <v>14.48145675725508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.541078687537988</v>
+        <v>2.886888123098342</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0039813279173945</v>
+        <v>-0.01386710065942771</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1733519849110504</v>
+        <v>-0.1819718593709529</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2788393083864349</v>
+        <v>0.2723314990032718</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06753662142381775</v>
+        <v>0.05108864704834961</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.244233389877273</v>
+        <v>4.333951378589354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.275481906925963</v>
+        <v>-4.237425039717873</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.527025118481067</v>
+        <v>9.360668597146102</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.122909070408429</v>
+        <v>1.056601873545471</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05307742211768136</v>
+        <v>0.05523619039723567</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05471232821997869</v>
+        <v>-0.05384625555930504</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1256056405285358</v>
+        <v>0.1239856707460487</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01475216489441501</v>
+        <v>0.01405422763549782</v>
       </c>
     </row>
     <row r="28">
